--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\BankAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2C9977-2BCC-424A-A039-F714EED975E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A69A51-F5DE-4BFC-92A4-A9E10F2EE018}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
-    <sheet name="User" sheetId="2" r:id="rId2"/>
+    <sheet name="Saving" sheetId="4" r:id="rId2"/>
+    <sheet name="Calc" sheetId="6" r:id="rId3"/>
+    <sheet name="CreatedSaving" sheetId="5" r:id="rId4"/>
+    <sheet name="User" sheetId="2" r:id="rId5"/>
+    <sheet name="Search" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>Username</t>
   </si>
@@ -70,9 +74,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -88,12 +89,6 @@
     <t>Phạm Văn C</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>0012345678</t>
   </si>
   <si>
@@ -146,6 +141,60 @@
   </si>
   <si>
     <t>kienpt@</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>LamVM</t>
+  </si>
+  <si>
+    <t>lamvm@gmail.com</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>kh1@gmail.com</t>
+  </si>
+  <si>
+    <t>kienpv@gmail.com</t>
+  </si>
+  <si>
+    <t>Phạm Văn Kiên</t>
+  </si>
+  <si>
+    <t>LamNT</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Created Time</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
 </sst>
 </file>
@@ -204,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -225,6 +274,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,7 +559,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,6 +567,8 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,11 +622,1355 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E60AD-C1B9-4D1B-BD31-569AF39B646E}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1000000</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1000000</v>
+      </c>
+      <c r="C3">
+        <v>3.1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1000000</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1000000</v>
+      </c>
+      <c r="C5">
+        <v>3.4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1000000</v>
+      </c>
+      <c r="C6">
+        <v>3.4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1000000</v>
+      </c>
+      <c r="C7">
+        <v>3.4</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1000000</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1000000</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1000000</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1000000</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1000000</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1000000</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1000000</v>
+      </c>
+      <c r="C14">
+        <v>5.6</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1000000</v>
+      </c>
+      <c r="C15">
+        <v>5.6</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1000000</v>
+      </c>
+      <c r="C16">
+        <v>5.6</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <v>5.6</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1000000</v>
+      </c>
+      <c r="C18">
+        <v>5.6</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1000000</v>
+      </c>
+      <c r="C19">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1000000</v>
+      </c>
+      <c r="C20">
+        <v>3.1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1000000</v>
+      </c>
+      <c r="C21">
+        <v>3.1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1000000</v>
+      </c>
+      <c r="C22">
+        <v>3.4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1000000</v>
+      </c>
+      <c r="C23">
+        <v>3.4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1000000</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1000000</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1000000</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1000000</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1000000</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1000000</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1000000</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1000000</v>
+      </c>
+      <c r="C31">
+        <v>5.6</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1000000</v>
+      </c>
+      <c r="C32">
+        <v>5.6</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1000000</v>
+      </c>
+      <c r="C33">
+        <v>5.6</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1000000</v>
+      </c>
+      <c r="C34">
+        <v>5.6</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1000000</v>
+      </c>
+      <c r="C35">
+        <v>5.6</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5841FF3-E4C8-45B8-BA97-62D3A09BBE5C}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10000000</v>
+      </c>
+      <c r="C2">
+        <v>3.1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10025833</v>
+      </c>
+      <c r="F2" s="10">
+        <v>25833</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10000000</v>
+      </c>
+      <c r="C3">
+        <v>3.1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>10051667</v>
+      </c>
+      <c r="F3" s="10">
+        <v>51667</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10000000</v>
+      </c>
+      <c r="C4">
+        <v>3.4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10085000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>85000</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>10000000</v>
+      </c>
+      <c r="C5">
+        <v>3.4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10113333</v>
+      </c>
+      <c r="F5" s="10">
+        <v>113333</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>10000000</v>
+      </c>
+      <c r="C6">
+        <v>3.4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10141667</v>
+      </c>
+      <c r="F6" s="10">
+        <v>141667</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>10000000</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10">
+        <v>10200000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>10000000</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10233333</v>
+      </c>
+      <c r="F8" s="10">
+        <v>233333</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>10000000</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10">
+        <v>10266667</v>
+      </c>
+      <c r="F9" s="10">
+        <v>266667</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>10000000</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10300000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>300000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10000000</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10333333</v>
+      </c>
+      <c r="F11" s="10">
+        <v>333333</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10000000</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10366667</v>
+      </c>
+      <c r="F12" s="10">
+        <v>366667</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10000000</v>
+      </c>
+      <c r="C13">
+        <v>5.6</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="10">
+        <v>10560000</v>
+      </c>
+      <c r="F13" s="10">
+        <v>560000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>10000000</v>
+      </c>
+      <c r="C14">
+        <v>5.6</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10">
+        <v>10606667</v>
+      </c>
+      <c r="F14" s="10">
+        <v>606667</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>10000000</v>
+      </c>
+      <c r="C15">
+        <v>5.6</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="10">
+        <v>10700000</v>
+      </c>
+      <c r="F15" s="10">
+        <v>700000</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>10000000</v>
+      </c>
+      <c r="C16">
+        <v>5.6</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10">
+        <v>10840000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>840000</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>10000000</v>
+      </c>
+      <c r="C17">
+        <v>5.6</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17" s="10">
+        <v>11120000</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1120000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>10000000</v>
+      </c>
+      <c r="C18">
+        <v>3.1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>10025833</v>
+      </c>
+      <c r="F18" s="10">
+        <v>25833</v>
+      </c>
+      <c r="G18" s="10">
+        <v>25833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>10000000</v>
+      </c>
+      <c r="C19">
+        <v>3.1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>10051667</v>
+      </c>
+      <c r="F19" s="10">
+        <v>51667</v>
+      </c>
+      <c r="G19" s="10">
+        <v>25833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>10000000</v>
+      </c>
+      <c r="C20">
+        <v>3.4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10085000</v>
+      </c>
+      <c r="F20" s="10">
+        <v>85000</v>
+      </c>
+      <c r="G20" s="10">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>10000000</v>
+      </c>
+      <c r="C21">
+        <v>3.4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>10113333</v>
+      </c>
+      <c r="F21" s="10">
+        <v>113333</v>
+      </c>
+      <c r="G21" s="10">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>10000000</v>
+      </c>
+      <c r="C22">
+        <v>3.4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10">
+        <v>10141667</v>
+      </c>
+      <c r="F22" s="10">
+        <v>141667</v>
+      </c>
+      <c r="G22" s="10">
+        <v>28333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>10000000</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10">
+        <v>10200000</v>
+      </c>
+      <c r="F23" s="10">
+        <v>200000</v>
+      </c>
+      <c r="G23" s="10">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>10000000</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
+        <v>10233333</v>
+      </c>
+      <c r="F24" s="10">
+        <v>233333</v>
+      </c>
+      <c r="G24" s="10">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>10000000</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10">
+        <v>10266667</v>
+      </c>
+      <c r="F25" s="10">
+        <v>266667</v>
+      </c>
+      <c r="G25" s="10">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>10000000</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" s="10">
+        <v>10300000</v>
+      </c>
+      <c r="F26" s="10">
+        <v>300000</v>
+      </c>
+      <c r="G26" s="10">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>10000000</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="10">
+        <v>10333333</v>
+      </c>
+      <c r="F27" s="10">
+        <v>333333</v>
+      </c>
+      <c r="G27" s="10">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>10000000</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28" s="10">
+        <v>10366667</v>
+      </c>
+      <c r="F28" s="10">
+        <v>366667</v>
+      </c>
+      <c r="G28" s="10">
+        <v>33333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>10000000</v>
+      </c>
+      <c r="C29">
+        <v>5.6</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" s="10">
+        <v>10560000</v>
+      </c>
+      <c r="F29" s="10">
+        <v>560000</v>
+      </c>
+      <c r="G29" s="10">
+        <v>46667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>10000000</v>
+      </c>
+      <c r="C30">
+        <v>5.6</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30" s="10">
+        <v>10606667</v>
+      </c>
+      <c r="F30" s="10">
+        <v>606667</v>
+      </c>
+      <c r="G30" s="10">
+        <v>46667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>10000000</v>
+      </c>
+      <c r="C31">
+        <v>5.6</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31" s="10">
+        <v>10700000</v>
+      </c>
+      <c r="F31" s="10">
+        <v>700000</v>
+      </c>
+      <c r="G31" s="10">
+        <v>46667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>10000000</v>
+      </c>
+      <c r="C32">
+        <v>5.6</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" s="10">
+        <v>10840000</v>
+      </c>
+      <c r="F32" s="10">
+        <v>840000</v>
+      </c>
+      <c r="G32" s="10">
+        <v>46667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>10000000</v>
+      </c>
+      <c r="C33">
+        <v>5.6</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33" s="10">
+        <v>11120000</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1120000</v>
+      </c>
+      <c r="G33" s="10">
+        <v>46667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5F8A3-FEB7-41D3-8FDD-37531264576A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF6DDB-9848-4272-88B3-ADE00CB3F9FD}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,348 +2006,615 @@
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{A0769148-98A1-4AA2-A52D-D5F0EDD3CF06}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{B09970D1-8027-4041-A745-AB6FF17055D2}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{B09970D1-8027-4041-A745-AB6FF17055D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511D916E-4CC1-4606-A32E-63B66C884B42}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\BankAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A69A51-F5DE-4BFC-92A4-A9E10F2EE018}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2F3F0-44D1-44A5-A61B-9BE219199ED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="57">
   <si>
     <t>Username</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Monthly</t>
+  </si>
+  <si>
+    <t>Kient@#!@#</t>
+  </si>
+  <si>
+    <t>Kientpt OR 1 = 1</t>
   </si>
 </sst>
 </file>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,6 +618,28 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1131,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5841FF3-E4C8-45B8-BA97-62D3A09BBE5C}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
